--- a/src/test/resources/testdata/Employee.xlsx
+++ b/src/test/resources/testdata/Employee.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
-    <t xml:space="preserve">FirstName </t>
-  </si>
-  <si>
     <t>MiddleName</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>C:\Users\maili\Downloads\Klitschko.jpg</t>
+  </si>
+  <si>
+    <t>FirstName</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,82 +417,82 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/Employee.xlsx
+++ b/src/test/resources/testdata/Employee.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>MiddleName</t>
   </si>
@@ -33,49 +33,52 @@
     <t>Password</t>
   </si>
   <si>
+    <t>Hum@nhrm123</t>
+  </si>
+  <si>
+    <t>Photograph</t>
+  </si>
+  <si>
+    <t>C:\Users\maili\Downloads\Jovovich.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\maili\Downloads\Kunis.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\maili\Downloads\Klitschko.jpg</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Mila</t>
   </si>
   <si>
+    <t>Vitali</t>
+  </si>
+  <si>
     <t>Kunis</t>
   </si>
   <si>
-    <t>Hum@nhrm123</t>
+    <t>Klichko</t>
   </si>
   <si>
     <t>Jovovich</t>
   </si>
   <si>
-    <t>jovovich321</t>
-  </si>
-  <si>
-    <t>Vitali</t>
-  </si>
-  <si>
-    <t>Klichko</t>
-  </si>
-  <si>
-    <t>klicko789</t>
-  </si>
-  <si>
-    <t>kunis654</t>
-  </si>
-  <si>
-    <t>Photograph</t>
-  </si>
-  <si>
-    <t>C:\Users\maili\Downloads\Jovovich.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\maili\Downloads\Kunis.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\maili\Downloads\Klitschko.jpg</t>
-  </si>
-  <si>
-    <t>FirstName</t>
+    <t>jovovich3217</t>
+  </si>
+  <si>
+    <t>klicko7897</t>
+  </si>
+  <si>
+    <t>kunis6745</t>
+  </si>
+  <si>
+    <t>Mila1</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +420,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -426,7 +429,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -437,62 +440,62 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
